--- a/ESPN sports website/IPL/Chennai Super Kings/Simarjeet Singh.xlsx
+++ b/ESPN sports website/IPL/Chennai Super Kings/Simarjeet Singh.xlsx
@@ -445,10 +445,10 @@
         <v>Simarjeet Singh</v>
       </c>
       <c r="C2" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -460,16 +460,16 @@
         <v>100.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>May 04, 2022</v>
+        <v>May 20, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>RCB won by 13 runs</v>
+        <v>Royals won by 5 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>Simarjeet Singh</v>
       </c>
       <c r="C3" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="str">
         <v>3</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>100.00</v>
+        <v>66.66</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I3" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>May 20, 2022</v>
+        <v>May 12, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Royals won by 5 wickets (with 2 balls remaining)</v>
+        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>66.66</v>
+        <v>100.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Mumbai Indians</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I4" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J4" t="str">
-        <v>May 12, 2022</v>
+        <v>May 04, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
+        <v>RCB won by 13 runs</v>
       </c>
     </row>
   </sheetData>
